--- a/HX1803班一阶项目进度管控.xlsx
+++ b/HX1803班一阶项目进度管控.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yjm\Downloads\web work\一阶项目\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6FAB40A3-D9B7-43FD-A462-7EFE9F2C2EA2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20415" windowHeight="7770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20415" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
   <si>
     <t>组长</t>
   </si>
@@ -260,12 +254,27 @@
 o</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>✓
+✓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>✓
+✓
+✓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>✓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,7 +505,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -538,7 +547,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -570,27 +579,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -622,24 +613,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -815,14 +788,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:T3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="4.375" style="2" customWidth="1"/>
@@ -846,7 +819,7 @@
     <col min="24" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" ht="22.5">
       <c r="A1" s="1"/>
       <c r="B1" s="7" t="s">
         <v>31</v>
@@ -873,7 +846,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" ht="30.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -910,7 +883,7 @@
       <c r="V2" s="12"/>
       <c r="W2" s="13"/>
     </row>
-    <row r="3" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" ht="73.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="6" t="s">
         <v>24</v>
@@ -945,7 +918,7 @@
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
     </row>
-    <row r="4" spans="1:23" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" ht="33.75">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1016,7 +989,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" ht="50.1" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -1031,12 +1004,14 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1053,7 +1028,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" ht="50.1" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -1090,7 +1065,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" ht="50.1" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -1127,7 +1102,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" ht="50.1" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -1166,7 +1141,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" ht="50.1" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -1207,7 +1182,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" ht="50.1" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -1268,12 +1243,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1281,12 +1256,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1294,12 +1269,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HX1803班一阶项目进度管控.xlsx
+++ b/HX1803班一阶项目进度管控.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>组长</t>
   </si>
@@ -197,64 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">✓
-✓
-o
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">✓
-o
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">✓
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✓
-o
-✓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o
-o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o
-✓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-✓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✓
-o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o
-o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>✓
 ✓</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,6 +209,34 @@
   </si>
   <si>
     <t>✓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>✓
+✓
+✓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>✓
+✓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>✓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>✓
+✓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -274,7 +244,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +295,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -444,7 +422,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -485,6 +463,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -792,7 +773,7 @@
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1000,17 +981,19 @@
         <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F5" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1046,9 +1029,11 @@
         <v>45</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1076,17 +1061,23 @@
         <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="F7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1113,18 +1104,20 @@
         <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1155,18 +1148,20 @@
         <v>41</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1193,19 +1188,19 @@
         <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
